--- a/De an cuoi khoa/hoc_vien.xlsx
+++ b/De an cuoi khoa/hoc_vien.xlsx
@@ -481,7 +481,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>nữ</t>
+          <t>nam</t>
         </is>
       </c>
     </row>
